--- a/data/trans_camb/P32C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P32C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,64</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 10,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 2,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 5,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 9,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 1,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 3,03</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>350,92%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-17,25%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>460,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 1,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 1,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,22 +926,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 0,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 2,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 1,27</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>321,02%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>312,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,47%</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,46; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,45; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 1,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 1,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 1,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 4,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 1,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-7,77%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,83%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,64; 194,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,32; 236,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,57; 197,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,39; 158,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,82; 220,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,34; 380,97</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
     </row>
@@ -1333,17 +1333,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 1,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 0,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; -0,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 0,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 0,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,46; 0,07</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-33,48%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-42,64%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-79,62%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,37%</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,98; 54,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,35; 56,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -4,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1469,17 +1469,17 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,6; 75,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,39; 25,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,77; 38,05</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 2,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,88; 0,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 0,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; -0,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 0,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; -0,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 0,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,53; 0,13</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,27%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,87%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,59%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,75%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,72%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,96%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,93%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,11; 195,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,57; 43,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,33; 72,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,09; 72,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,65; 19,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,05; 64,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,67; 10,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,4; 9,61</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 1,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 0,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 0,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,48; 0,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 0,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 0,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 0,25</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,17%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,07%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,91%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,64%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,2%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,44; 67,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,39; 39,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,52; 9,77</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 37,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,14; 107,51</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,72; 225,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,18; 36,61</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,12; 23,35</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,76; 21,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,22 +632,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 10,79</t>
+          <t>-0,5; 2,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,24</t>
+          <t>0,01; 3,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 5,19</t>
+          <t>-0,9; 1,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,65</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,45</t>
+          <t>-0,18; 1,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,57</t>
+          <t>-0,07; 2,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,03</t>
+          <t>-0,46; 1,13</t>
         </is>
       </c>
     </row>
@@ -738,17 +738,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>350,92%</t>
+          <t>119,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-17,25%</t>
+          <t>198,65%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,22 +763,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>460,47%</t>
+          <t>158,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,76%</t>
+          <t>193,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>67,28%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-66,01; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-38,78; —</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,39; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,25; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,83; 977,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,17 +848,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -868,27 +868,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,18</t>
+          <t>-1,51; 1,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,91</t>
+          <t>-1,45; 1,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,04</t>
+          <t>-1,55; 1,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,27 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>0,48; 4,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,83</t>
+          <t>-1,05; 0,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,6</t>
+          <t>-0,94; 1,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,27</t>
+          <t>-0,46; 1,88</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>-7,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>321,02%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -984,17 +984,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>-8,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>312,8%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>114,47%</t>
+          <t>54,85%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-66,64; 194,03</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-69,32; 236,47</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-71,59; 185,14</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-57,46; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,39; 158,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-66,45; —</t>
+          <t>-63,82; 220,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,24; 367,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1084,27 +1084,27 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>-1,79</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,31</t>
+          <t>-3,97; 1,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,56</t>
+          <t>-4,14; 0,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,53</t>
+          <t>-5,34; -0,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,52</t>
+          <t>0,0; 3,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,81</t>
+          <t>-2,9; 0,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,11</t>
+          <t>-3,14; 0,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,97</t>
+          <t>-3,6; -0,28</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>-33,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>-42,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>-79,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1190,27 +1190,27 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-8,75%</t>
+          <t>-36,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>-48,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,83%</t>
+          <t>-73,74%</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 194,03</t>
+          <t>-75,98; 54,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-69,32; 236,47</t>
+          <t>-79,35; 56,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,57; 197,89</t>
+          <t>-100,0; -3,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-70,39; 158,87</t>
+          <t>-75,6; 75,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 220,72</t>
+          <t>-82,39; 25,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,34; 380,97</t>
+          <t>-100,0; 3,99</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,16</t>
+          <t>-1,34; 2,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,78</t>
+          <t>-2,88; 0,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -0,71</t>
+          <t>-2,81; 0,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; -0,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 0,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>-4,44; -0,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,81</t>
+          <t>-2,08; 1,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,28</t>
+          <t>-2,68; 0,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,07</t>
+          <t>-2,56; 0,1</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-33,48%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-42,64%</t>
+          <t>-48,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-79,62%</t>
+          <t>-34,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-70,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-36,0%</t>
+          <t>-19,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-48,01%</t>
+          <t>-49,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-67,37%</t>
+          <t>-49,51%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 54,47</t>
+          <t>-44,11; 195,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,35; 56,79</t>
+          <t>-83,57; 43,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,78</t>
+          <t>-80,9; 62,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,09; 72,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,63; 19,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-75,6; 75,41</t>
+          <t>-61,05; 64,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-82,39; 25,9</t>
+          <t>-76,67; 10,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-94,77; 38,05</t>
+          <t>-76,61; 7,88</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>-0,49</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,71</t>
+          <t>-0,73; 1,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,41</t>
+          <t>-1,13; 0,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 0,81</t>
+          <t>-1,48; 0,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,51</t>
+          <t>-1,48; 0,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,64</t>
+          <t>-1,37; 0,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -0,12</t>
+          <t>-1,11; 0,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,06</t>
+          <t>-0,83; 0,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,04</t>
+          <t>-0,94; 0,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,13</t>
+          <t>-1,12; 0,17</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-48,27%</t>
+          <t>-13,99%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-32,87%</t>
+          <t>-36,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-79,59%</t>
+          <t>-68,07%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-52,75%</t>
+          <t>-39,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-70,44%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-19,72%</t>
+          <t>-8,64%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-49,96%</t>
+          <t>-21,65%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-48,93%</t>
+          <t>-31,23%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,11; 195,81</t>
+          <t>-32,44; 67,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-83,57; 43,84</t>
+          <t>-48,39; 39,83</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,33; 72,26</t>
+          <t>-62,66; 5,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,07</t>
+          <t>-100,0; 37,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-90,09; 72,49</t>
+          <t>-86,14; 107,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-94,65; 19,47</t>
+          <t>-73,96; 179,89</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-61,05; 64,01</t>
+          <t>-43,18; 36,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-76,67; 10,47</t>
+          <t>-51,12; 23,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-76,4; 9,61</t>
+          <t>-58,09; 13,99</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 1,02</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 0,55</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 0,11</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 0,01</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 0,37</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 1,2</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 0,47</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 0,28</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-1,05; 0,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>7,35%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-13,99%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-34,17%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-68,07%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-39,91%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>12,32%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-8,64%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-21,65%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-26,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-32,44; 67,96</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-48,39; 39,83</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-61,52; 9,77</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 37,17</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-86,14; 107,51</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-67,72; 225,6</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-43,18; 36,61</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-51,12; 23,35</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-53,76; 21,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P32C-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32C-Habitat-trans_camb.xlsx
@@ -685,22 +685,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,04</t>
+          <t>-0,34; 2,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,07</t>
+          <t>-0,1; 3,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,13</t>
+          <t>-1,08; 1,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +710,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,73</t>
+          <t>-0,17; 1,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,33</t>
+          <t>-0,05; 2,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,13</t>
+          <t>-0,5; 1,1</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,01; —</t>
+          <t>-58,8; 992,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,78; —</t>
+          <t>-47,84; 1395,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,39; —</t>
+          <t>-42,27; 1242,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,25; —</t>
+          <t>-51,74; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-74,83; 977,24</t>
+          <t>-75,63; 789,24</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,31</t>
+          <t>-1,44; 1,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,56</t>
+          <t>-1,43; 1,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,45</t>
+          <t>-1,46; 1,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,27 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,63</t>
+          <t>0,49; 5,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 0,81</t>
+          <t>-1,04; 0,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,11</t>
+          <t>-0,95; 1,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,88</t>
+          <t>-0,64; 1,88</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 194,03</t>
+          <t>-70,65; 192,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,32; 236,47</t>
+          <t>-66,3; 217,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,59; 185,14</t>
+          <t>-69,29; 201,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,39; 158,87</t>
+          <t>-68,56; 206,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 220,72</t>
+          <t>-66,04; 205,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 367,11</t>
+          <t>-47,02; 337,16</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,16</t>
+          <t>-3,77; 0,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 0,78</t>
+          <t>-3,86; 0,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -0,7</t>
+          <t>-4,92; -0,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,8</t>
+          <t>0,0; 3,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,81</t>
+          <t>-2,7; 0,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,28</t>
+          <t>-3,14; 0,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,28</t>
+          <t>-3,68; -0,13</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 54,47</t>
+          <t>-73,94; 60,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,35; 56,79</t>
+          <t>-79,83; 49,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,27</t>
+          <t>-100,0; 1,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-75,6; 75,41</t>
+          <t>-75,41; 71,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-82,39; 25,9</t>
+          <t>-82,5; 41,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3,99</t>
+          <t>-96,24; 31,81</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,71</t>
+          <t>-1,3; 2,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 0,41</t>
+          <t>-2,93; 0,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,73</t>
+          <t>-2,72; 0,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -0,51</t>
+          <t>-4,48; -0,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,64</t>
+          <t>-3,97; 0,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; -0,1</t>
+          <t>-4,29; -0,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,06</t>
+          <t>-2,01; 0,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,04</t>
+          <t>-2,72; -0,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,1</t>
+          <t>-2,59; 0,08</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,11; 195,81</t>
+          <t>-42,98; 212,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-83,57; 43,84</t>
+          <t>-83,15; 34,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-80,9; 62,14</t>
+          <t>-76,42; 57,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,07</t>
+          <t>-100,0; 26,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-90,09; 72,49</t>
+          <t>-91,02; 52,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-94,63; 19,07</t>
+          <t>-94,15; 11,96</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-61,05; 64,01</t>
+          <t>-62,06; 58,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-76,67; 10,47</t>
+          <t>-77,18; 3,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-76,61; 7,88</t>
+          <t>-77,82; 15,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,02</t>
+          <t>-0,74; 1,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,55</t>
+          <t>-1,09; 0,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>-1,51; 0,01</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>-1,48; 0,03</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 0,01</t>
-        </is>
-      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 0,37</t>
+          <t>-1,27; 0,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,94</t>
+          <t>-1,06; 0,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,47</t>
+          <t>-0,8; 0,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,28</t>
+          <t>-0,93; 0,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,17</t>
+          <t>-1,14; 0,09</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 67,96</t>
+          <t>-31,5; 69,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 39,83</t>
+          <t>-47,65; 37,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,66; 5,69</t>
+          <t>-64,87; 4,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 37,17</t>
+          <t>-100,0; 69,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-86,14; 107,51</t>
+          <t>-82,97; 132,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-73,96; 179,89</t>
+          <t>-75,26; 193,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,18; 36,61</t>
+          <t>-41,22; 41,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 23,35</t>
+          <t>-48,06; 25,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-58,09; 13,99</t>
+          <t>-59,56; 9,12</t>
         </is>
       </c>
     </row>
